--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_30_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_30_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>146131.7136400843</v>
+        <v>25258816.03807677</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>146131.7136400843</v>
+        <v>25258816.03807677</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1833.156537215873</v>
+        <v>128226.7522018783</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1833.156537215873</v>
+        <v>128226.7522018783</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958176440.1549397</v>
+        <v>38425971.10117311</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6977.903641958465</v>
+        <v>789867.6185631847</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13926.88136936813</v>
+        <v>1573978.980131159</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20875.85909677744</v>
+        <v>2358090.341699179</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27897.12121422896</v>
+        <v>3143801.302667161</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>34914.18333168047</v>
+        <v>3928676.463635136</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>41931.24544913197</v>
+        <v>4713551.62460311</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>48948.30756658348</v>
+        <v>5498426.785571082</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>55961.10832264778</v>
+        <v>6278594.935884714</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>63127.31952648432</v>
+        <v>7071855.711812892</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>70177.14453480869</v>
+        <v>7851339.566502462</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>77265.29514875263</v>
+        <v>8638450.216710337</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>84290.84166538488</v>
+        <v>9425090.613379128</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>91314.64265639853</v>
+        <v>10211383.65044975</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>98400.2824758247</v>
+        <v>11003253.6875203</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>105525.6095761225</v>
+        <v>11782389.12206283</v>
       </c>
     </row>
   </sheetData>
